--- a/Impact Soundworks/Bravura Scoring Brass/xlsx/02 Solo.xlsx
+++ b/Impact Soundworks/Bravura Scoring Brass/xlsx/02 Solo.xlsx
@@ -39,6 +39,21 @@
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
@@ -61,6 +76,21 @@
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -89,6 +119,21 @@
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
@@ -111,6 +156,21 @@
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -139,6 +199,21 @@
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
@@ -161,6 +236,21 @@
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -189,6 +279,21 @@
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
@@ -214,6 +319,21 @@
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
@@ -230,7 +350,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="159">
   <si>
     <t>Name</t>
   </si>
@@ -681,12 +801,39 @@
   <si>
     <t>Trill Min</t>
   </si>
+  <si>
+    <t>Expression Map Name</t>
+  </si>
+  <si>
+    <t>08 Solo Piccolo Trumpet</t>
+  </si>
+  <si>
+    <t>09 Solo Trumpet</t>
+  </si>
+  <si>
+    <t>10 Solo Flugelhorn</t>
+  </si>
+  <si>
+    <t>11 Solo Horn</t>
+  </si>
+  <si>
+    <t>12 Solo Trombone</t>
+  </si>
+  <si>
+    <t>13 Solo Tuba</t>
+  </si>
+  <si>
+    <t>14 Solo Orchestrator</t>
+  </si>
+  <si>
+    <t>15 Solo Chordmaker</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -731,8 +878,15 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -785,6 +939,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDBEEF4"/>
         <bgColor rgb="FFEBF1DE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -844,7 +1004,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -904,6 +1064,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -994,13 +1160,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1299,7 +1465,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1307,12 +1473,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K124"/>
+  <dimension ref="A1:K126"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -1327,100 +1493,59 @@
     <col min="1026" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="12">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="12">
-        <v>120</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="B4" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>12</v>
@@ -1428,12 +1553,8 @@
       <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="12">
-        <v>120</v>
-      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
@@ -1441,13 +1562,13 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>12</v>
@@ -1456,7 +1577,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G5" s="12">
         <v>120</v>
@@ -1468,13 +1589,13 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B6" s="12">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>12</v>
@@ -1483,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G6" s="12">
         <v>120</v>
@@ -1495,13 +1616,13 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B7" s="12">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>12</v>
@@ -1510,7 +1631,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G7" s="12">
         <v>120</v>
@@ -1522,13 +1643,13 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B8" s="12">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>12</v>
@@ -1537,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G8" s="12">
         <v>120</v>
@@ -1549,13 +1670,13 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B9" s="12">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>12</v>
@@ -1564,7 +1685,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G9" s="12">
         <v>120</v>
@@ -1575,26 +1696,54 @@
       <c r="K9" s="12"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="1"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="A10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" s="12">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="12">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="12">
+        <v>120</v>
+      </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
+      <c r="A11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="12">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="12">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="12">
+        <v>120</v>
+      </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -3069,26 +3218,55 @@
       <c r="J124" s="12"/>
       <c r="K124" s="12"/>
     </row>
+    <row r="125" spans="1:11">
+      <c r="A125" s="1"/>
+      <c r="B125" s="12"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="13"/>
+      <c r="E125" s="12"/>
+      <c r="F125" s="12"/>
+      <c r="G125" s="12"/>
+      <c r="H125" s="12"/>
+      <c r="I125" s="12"/>
+      <c r="J125" s="12"/>
+      <c r="K125" s="12"/>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" s="1"/>
+      <c r="B126" s="12"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="12"/>
+      <c r="F126" s="12"/>
+      <c r="G126" s="12"/>
+      <c r="H126" s="12"/>
+      <c r="I126" s="12"/>
+      <c r="J126" s="12"/>
+      <c r="K126" s="12"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B124">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B126">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I124">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I126">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G2:G124">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G126">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J2:J124">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J126">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K2:K124">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K126">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
@@ -3107,7 +3285,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D124</xm:sqref>
+          <xm:sqref>D4:D126</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -3116,7 +3294,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E2:E124</xm:sqref>
+          <xm:sqref>E4:E126</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="MIDI Note" prompt="Choose from Drop-down list or imput number directly(0-127)_x000a__x000a_If don’t use MIDI Note, set Cell value empty.">
           <x14:formula1>
@@ -3125,7 +3303,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F2:F124</xm:sqref>
+          <xm:sqref>F4:F126</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3135,12 +3313,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K124"/>
+  <dimension ref="A1:K126"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -3155,100 +3333,59 @@
     <col min="1026" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="12">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="12">
-        <v>120</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="B4" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>12</v>
@@ -3256,12 +3393,8 @@
       <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="12">
-        <v>120</v>
-      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
@@ -3269,13 +3402,13 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>12</v>
@@ -3284,7 +3417,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G5" s="12">
         <v>120</v>
@@ -3296,13 +3429,13 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B6" s="12">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>12</v>
@@ -3311,7 +3444,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G6" s="12">
         <v>120</v>
@@ -3323,13 +3456,13 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B7" s="12">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>12</v>
@@ -3338,7 +3471,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G7" s="12">
         <v>120</v>
@@ -3350,13 +3483,13 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B8" s="12">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>12</v>
@@ -3365,7 +3498,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G8" s="12">
         <v>120</v>
@@ -3377,13 +3510,13 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B9" s="12">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>12</v>
@@ -3392,7 +3525,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G9" s="12">
         <v>120</v>
@@ -3403,26 +3536,54 @@
       <c r="K9" s="12"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="1"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="A10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" s="12">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="12">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="12">
+        <v>120</v>
+      </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
+      <c r="A11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="12">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="12">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="12">
+        <v>120</v>
+      </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -4897,26 +5058,55 @@
       <c r="J124" s="12"/>
       <c r="K124" s="12"/>
     </row>
+    <row r="125" spans="1:11">
+      <c r="A125" s="1"/>
+      <c r="B125" s="12"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="13"/>
+      <c r="E125" s="12"/>
+      <c r="F125" s="12"/>
+      <c r="G125" s="12"/>
+      <c r="H125" s="12"/>
+      <c r="I125" s="12"/>
+      <c r="J125" s="12"/>
+      <c r="K125" s="12"/>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" s="1"/>
+      <c r="B126" s="12"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="12"/>
+      <c r="F126" s="12"/>
+      <c r="G126" s="12"/>
+      <c r="H126" s="12"/>
+      <c r="I126" s="12"/>
+      <c r="J126" s="12"/>
+      <c r="K126" s="12"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="6"/>
   <dataValidations count="5">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K2:K124">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K126">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J2:J124">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J126">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G2:G124">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G126">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I124">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I126">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B124">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B126">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4934,7 +5124,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F2:F124</xm:sqref>
+          <xm:sqref>F4:F126</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -4943,7 +5133,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E2:E124</xm:sqref>
+          <xm:sqref>E4:E126</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -4952,7 +5142,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D124</xm:sqref>
+          <xm:sqref>D4:D126</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4962,12 +5152,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K124"/>
+  <dimension ref="A1:K126"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -4982,100 +5172,59 @@
     <col min="1026" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="12">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="12">
-        <v>120</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="B4" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>12</v>
@@ -5083,12 +5232,8 @@
       <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="12">
-        <v>120</v>
-      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
@@ -5096,13 +5241,13 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>12</v>
@@ -5111,7 +5256,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G5" s="12">
         <v>120</v>
@@ -5123,13 +5268,13 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B6" s="12">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>12</v>
@@ -5138,7 +5283,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G6" s="12">
         <v>120</v>
@@ -5150,13 +5295,13 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B7" s="12">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>12</v>
@@ -5165,7 +5310,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G7" s="12">
         <v>120</v>
@@ -5177,13 +5322,13 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B8" s="12">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>12</v>
@@ -5192,7 +5337,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G8" s="12">
         <v>120</v>
@@ -5204,13 +5349,13 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B9" s="12">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>12</v>
@@ -5219,7 +5364,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G9" s="12">
         <v>120</v>
@@ -5230,26 +5375,54 @@
       <c r="K9" s="12"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="1"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="A10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" s="12">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="12">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="12">
+        <v>120</v>
+      </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
+      <c r="A11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="12">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="12">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="12">
+        <v>120</v>
+      </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -6724,26 +6897,55 @@
       <c r="J124" s="12"/>
       <c r="K124" s="12"/>
     </row>
+    <row r="125" spans="1:11">
+      <c r="A125" s="1"/>
+      <c r="B125" s="12"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="13"/>
+      <c r="E125" s="12"/>
+      <c r="F125" s="12"/>
+      <c r="G125" s="12"/>
+      <c r="H125" s="12"/>
+      <c r="I125" s="12"/>
+      <c r="J125" s="12"/>
+      <c r="K125" s="12"/>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" s="1"/>
+      <c r="B126" s="12"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="12"/>
+      <c r="F126" s="12"/>
+      <c r="G126" s="12"/>
+      <c r="H126" s="12"/>
+      <c r="I126" s="12"/>
+      <c r="J126" s="12"/>
+      <c r="K126" s="12"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="6"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B124">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B126">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I124">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I126">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G2:G124">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G126">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J2:J124">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J126">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K2:K124">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K126">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
@@ -6761,7 +6963,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D124</xm:sqref>
+          <xm:sqref>D4:D126</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -6770,7 +6972,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E2:E124</xm:sqref>
+          <xm:sqref>E4:E126</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="MIDI Note" prompt="Choose from Drop-down list or imput number directly(0-127)_x000a__x000a_If don’t use MIDI Note, set Cell value empty.">
           <x14:formula1>
@@ -6779,7 +6981,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F2:F124</xm:sqref>
+          <xm:sqref>F4:F126</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6789,12 +6991,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K124"/>
+  <dimension ref="A1:K126"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -6809,100 +7011,59 @@
     <col min="1026" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="12">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="12">
-        <v>120</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="B4" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>12</v>
@@ -6910,12 +7071,8 @@
       <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="12">
-        <v>120</v>
-      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
@@ -6923,13 +7080,13 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>12</v>
@@ -6938,7 +7095,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G5" s="12">
         <v>120</v>
@@ -6950,13 +7107,13 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B6" s="12">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>12</v>
@@ -6965,7 +7122,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G6" s="12">
         <v>120</v>
@@ -6977,13 +7134,13 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B7" s="12">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>12</v>
@@ -6992,7 +7149,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G7" s="12">
         <v>120</v>
@@ -7004,13 +7161,13 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B8" s="12">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>12</v>
@@ -7019,7 +7176,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G8" s="12">
         <v>120</v>
@@ -7031,13 +7188,13 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B9" s="12">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>12</v>
@@ -7046,7 +7203,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G9" s="12">
         <v>120</v>
@@ -7057,26 +7214,54 @@
       <c r="K9" s="12"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="1"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="A10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" s="12">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="12">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="12">
+        <v>120</v>
+      </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
+      <c r="A11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="12">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="12">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="12">
+        <v>120</v>
+      </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -8551,26 +8736,55 @@
       <c r="J124" s="12"/>
       <c r="K124" s="12"/>
     </row>
+    <row r="125" spans="1:11">
+      <c r="A125" s="1"/>
+      <c r="B125" s="12"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="13"/>
+      <c r="E125" s="12"/>
+      <c r="F125" s="12"/>
+      <c r="G125" s="12"/>
+      <c r="H125" s="12"/>
+      <c r="I125" s="12"/>
+      <c r="J125" s="12"/>
+      <c r="K125" s="12"/>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" s="1"/>
+      <c r="B126" s="12"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="12"/>
+      <c r="F126" s="12"/>
+      <c r="G126" s="12"/>
+      <c r="H126" s="12"/>
+      <c r="I126" s="12"/>
+      <c r="J126" s="12"/>
+      <c r="K126" s="12"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="6"/>
   <dataValidations count="5">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K2:K124">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K126">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J2:J124">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J126">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G2:G124">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G126">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I124">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I126">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B124">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B126">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -8588,7 +8802,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F2:F124</xm:sqref>
+          <xm:sqref>F4:F126</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -8597,7 +8811,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E2:E124</xm:sqref>
+          <xm:sqref>E4:E126</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -8606,7 +8820,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D124</xm:sqref>
+          <xm:sqref>D4:D126</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8616,12 +8830,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K122"/>
+  <dimension ref="A1:K124"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -8636,100 +8850,59 @@
     <col min="1026" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="12">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="12">
-        <v>120</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="B4" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>12</v>
@@ -8737,12 +8910,8 @@
       <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="12">
-        <v>120</v>
-      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
@@ -8750,13 +8919,13 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>12</v>
@@ -8765,7 +8934,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G5" s="12">
         <v>120</v>
@@ -8777,13 +8946,13 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B6" s="12">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>12</v>
@@ -8792,7 +8961,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G6" s="12">
         <v>120</v>
@@ -8804,13 +8973,13 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B7" s="12">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>12</v>
@@ -8819,7 +8988,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G7" s="12">
         <v>120</v>
@@ -8830,26 +8999,54 @@
       <c r="K7" s="12"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="1"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="A8" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="12">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="12">
+        <v>120</v>
+      </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="1"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+      <c r="A9" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" s="12">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="12">
+        <v>120</v>
+      </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -10324,26 +10521,55 @@
       <c r="J122" s="12"/>
       <c r="K122" s="12"/>
     </row>
+    <row r="123" spans="1:11">
+      <c r="A123" s="1"/>
+      <c r="B123" s="12"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="12"/>
+      <c r="I123" s="12"/>
+      <c r="J123" s="12"/>
+      <c r="K123" s="12"/>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" s="1"/>
+      <c r="B124" s="12"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="13"/>
+      <c r="E124" s="12"/>
+      <c r="F124" s="12"/>
+      <c r="G124" s="12"/>
+      <c r="H124" s="12"/>
+      <c r="I124" s="12"/>
+      <c r="J124" s="12"/>
+      <c r="K124" s="12"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="6"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B122">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B124">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I122">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I124">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G2:G122">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G124">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J2:J122">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J124">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K2:K122">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K124">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
@@ -10361,7 +10587,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D122</xm:sqref>
+          <xm:sqref>D4:D124</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -10370,7 +10596,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E2:E122</xm:sqref>
+          <xm:sqref>E4:E124</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="MIDI Note" prompt="Choose from Drop-down list or imput number directly(0-127)_x000a__x000a_If don’t use MIDI Note, set Cell value empty.">
           <x14:formula1>
@@ -10379,7 +10605,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F2:F122</xm:sqref>
+          <xm:sqref>F4:F124</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -10389,12 +10615,12 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K122"/>
+  <dimension ref="A1:K124"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -10409,100 +10635,59 @@
     <col min="1026" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="12">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" s="12">
-        <v>120</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="B4" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>12</v>
@@ -10510,12 +10695,8 @@
       <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="G4" s="12">
-        <v>120</v>
-      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
@@ -10523,13 +10704,13 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>12</v>
@@ -10538,7 +10719,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G5" s="12">
         <v>120</v>
@@ -10550,13 +10731,13 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B6" s="12">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>12</v>
@@ -10565,7 +10746,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G6" s="12">
         <v>120</v>
@@ -10577,13 +10758,13 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B7" s="12">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>12</v>
@@ -10592,7 +10773,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G7" s="12">
         <v>120</v>
@@ -10603,26 +10784,54 @@
       <c r="K7" s="12"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="1"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="A8" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="12">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="12">
+        <v>120</v>
+      </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="1"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+      <c r="A9" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" s="12">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="12">
+        <v>120</v>
+      </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -12097,26 +12306,55 @@
       <c r="J122" s="12"/>
       <c r="K122" s="12"/>
     </row>
+    <row r="123" spans="1:11">
+      <c r="A123" s="1"/>
+      <c r="B123" s="12"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="12"/>
+      <c r="I123" s="12"/>
+      <c r="J123" s="12"/>
+      <c r="K123" s="12"/>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" s="1"/>
+      <c r="B124" s="12"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="13"/>
+      <c r="E124" s="12"/>
+      <c r="F124" s="12"/>
+      <c r="G124" s="12"/>
+      <c r="H124" s="12"/>
+      <c r="I124" s="12"/>
+      <c r="J124" s="12"/>
+      <c r="K124" s="12"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="6"/>
   <dataValidations count="5">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K2:K122">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K124">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J2:J122">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J124">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G2:G122">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G124">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I122">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I124">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B122">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B124">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -12134,7 +12372,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F2:F122</xm:sqref>
+          <xm:sqref>F4:F124</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -12143,7 +12381,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E2:E122</xm:sqref>
+          <xm:sqref>E4:E124</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -12152,7 +12390,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D122</xm:sqref>
+          <xm:sqref>D4:D124</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -12162,12 +12400,12 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K121"/>
+  <dimension ref="A1:K123"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -12182,100 +12420,59 @@
     <col min="1026" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="12">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="12">
-        <v>120</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="B4" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>12</v>
@@ -12283,12 +12480,8 @@
       <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="12">
-        <v>120</v>
-      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
@@ -12296,13 +12489,13 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>12</v>
@@ -12311,7 +12504,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G5" s="12">
         <v>120</v>
@@ -12323,13 +12516,13 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B6" s="12">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>12</v>
@@ -12338,7 +12531,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G6" s="12">
         <v>120</v>
@@ -12349,26 +12542,54 @@
       <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="1"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="A7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="12">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="12">
+        <v>120</v>
+      </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="1"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="A8" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" s="12">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="12">
+        <v>120</v>
+      </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -13843,26 +14064,55 @@
       <c r="J121" s="12"/>
       <c r="K121" s="12"/>
     </row>
+    <row r="122" spans="1:11">
+      <c r="A122" s="1"/>
+      <c r="B122" s="12"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="13"/>
+      <c r="E122" s="12"/>
+      <c r="F122" s="12"/>
+      <c r="G122" s="12"/>
+      <c r="H122" s="12"/>
+      <c r="I122" s="12"/>
+      <c r="J122" s="12"/>
+      <c r="K122" s="12"/>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" s="1"/>
+      <c r="B123" s="12"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="12"/>
+      <c r="I123" s="12"/>
+      <c r="J123" s="12"/>
+      <c r="K123" s="12"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="6"/>
   <dataValidations count="5">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K2:K121">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K123">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J2:J121">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J123">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G2:G121">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G123">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I121">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I123">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B121">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B123">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -13880,7 +14130,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F2:F121</xm:sqref>
+          <xm:sqref>F4:F123</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -13889,7 +14139,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E2:E121</xm:sqref>
+          <xm:sqref>E4:E123</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -13898,7 +14148,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D121</xm:sqref>
+          <xm:sqref>D4:D123</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -13908,12 +14158,12 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K122"/>
+  <dimension ref="A1:K123"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -13928,100 +14178,59 @@
     <col min="1026" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B4" s="12">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11" s="11" customFormat="1">
-      <c r="A3" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="12">
-        <v>120</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-    </row>
-    <row r="4" spans="1:11" s="11" customFormat="1">
-      <c r="A4" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B4" s="12">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>12</v>
@@ -14029,26 +14238,22 @@
       <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="12">
-        <v>120</v>
-      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
     </row>
-    <row r="5" spans="1:11" s="11" customFormat="1">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>12</v>
@@ -14057,7 +14262,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G5" s="12">
         <v>120</v>
@@ -14067,15 +14272,15 @@
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
     </row>
-    <row r="6" spans="1:11" s="11" customFormat="1">
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B6" s="12">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>12</v>
@@ -14084,7 +14289,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G6" s="12">
         <v>120</v>
@@ -14094,33 +14299,61 @@
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
     </row>
-    <row r="7" spans="1:11" s="11" customFormat="1">
-      <c r="A7" s="1"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="12">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="12">
+        <v>120</v>
+      </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
     </row>
-    <row r="8" spans="1:11" s="11" customFormat="1">
-      <c r="A8" s="1"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" s="12">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="12">
+        <v>120</v>
+      </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
     </row>
-    <row r="9" spans="1:11" s="11" customFormat="1">
+    <row r="9" spans="1:11">
       <c r="A9" s="1"/>
       <c r="B9" s="12"/>
       <c r="C9" s="2"/>
@@ -14133,7 +14366,7 @@
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
     </row>
-    <row r="10" spans="1:11" s="11" customFormat="1">
+    <row r="10" spans="1:11">
       <c r="A10" s="1"/>
       <c r="B10" s="12"/>
       <c r="C10" s="2"/>
@@ -14146,7 +14379,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" spans="1:11" s="11" customFormat="1">
+    <row r="11" spans="1:11">
       <c r="A11" s="1"/>
       <c r="B11" s="12"/>
       <c r="C11" s="2"/>
@@ -14159,7 +14392,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="1:11" s="11" customFormat="1">
+    <row r="12" spans="1:11">
       <c r="A12" s="1"/>
       <c r="B12" s="12"/>
       <c r="C12" s="2"/>
@@ -14172,7 +14405,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
     </row>
-    <row r="13" spans="1:11" s="11" customFormat="1">
+    <row r="13" spans="1:11">
       <c r="A13" s="1"/>
       <c r="B13" s="12"/>
       <c r="C13" s="2"/>
@@ -14185,7 +14418,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
     </row>
-    <row r="14" spans="1:11" s="11" customFormat="1">
+    <row r="14" spans="1:11">
       <c r="A14" s="1"/>
       <c r="B14" s="12"/>
       <c r="C14" s="2"/>
@@ -14198,7 +14431,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:11" s="11" customFormat="1">
+    <row r="15" spans="1:11">
       <c r="A15" s="1"/>
       <c r="B15" s="12"/>
       <c r="C15" s="2"/>
@@ -14211,7 +14444,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="1:11" s="11" customFormat="1">
+    <row r="16" spans="1:11">
       <c r="A16" s="1"/>
       <c r="B16" s="12"/>
       <c r="C16" s="2"/>
@@ -14224,7 +14457,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
     </row>
-    <row r="17" spans="1:11" s="11" customFormat="1">
+    <row r="17" spans="1:11">
       <c r="A17" s="1"/>
       <c r="B17" s="12"/>
       <c r="C17" s="2"/>
@@ -14237,7 +14470,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
     </row>
-    <row r="18" spans="1:11" s="11" customFormat="1">
+    <row r="18" spans="1:11">
       <c r="A18" s="1"/>
       <c r="B18" s="12"/>
       <c r="C18" s="2"/>
@@ -14250,7 +14483,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
     </row>
-    <row r="19" spans="1:11" s="11" customFormat="1">
+    <row r="19" spans="1:11">
       <c r="A19" s="1"/>
       <c r="B19" s="12"/>
       <c r="C19" s="2"/>
@@ -14263,7 +14496,7 @@
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
     </row>
-    <row r="20" spans="1:11" s="11" customFormat="1">
+    <row r="20" spans="1:11">
       <c r="A20" s="1"/>
       <c r="B20" s="12"/>
       <c r="C20" s="2"/>
@@ -14276,7 +14509,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
     </row>
-    <row r="21" spans="1:11" s="11" customFormat="1">
+    <row r="21" spans="1:11">
       <c r="A21" s="1"/>
       <c r="B21" s="12"/>
       <c r="C21" s="2"/>
@@ -14289,7 +14522,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
     </row>
-    <row r="22" spans="1:11" s="11" customFormat="1">
+    <row r="22" spans="1:11">
       <c r="A22" s="1"/>
       <c r="B22" s="12"/>
       <c r="C22" s="2"/>
@@ -14302,7 +14535,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
     </row>
-    <row r="23" spans="1:11" s="11" customFormat="1">
+    <row r="23" spans="1:11">
       <c r="A23" s="1"/>
       <c r="B23" s="12"/>
       <c r="C23" s="2"/>
@@ -14315,7 +14548,7 @@
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
     </row>
-    <row r="24" spans="1:11" s="11" customFormat="1">
+    <row r="24" spans="1:11">
       <c r="A24" s="1"/>
       <c r="B24" s="12"/>
       <c r="C24" s="2"/>
@@ -14328,7 +14561,7 @@
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
     </row>
-    <row r="25" spans="1:11" s="11" customFormat="1">
+    <row r="25" spans="1:11">
       <c r="A25" s="1"/>
       <c r="B25" s="12"/>
       <c r="C25" s="2"/>
@@ -14341,7 +14574,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
     </row>
-    <row r="26" spans="1:11" s="11" customFormat="1">
+    <row r="26" spans="1:11">
       <c r="A26" s="1"/>
       <c r="B26" s="12"/>
       <c r="C26" s="2"/>
@@ -14354,7 +14587,7 @@
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
     </row>
-    <row r="27" spans="1:11" s="11" customFormat="1">
+    <row r="27" spans="1:11">
       <c r="A27" s="1"/>
       <c r="B27" s="12"/>
       <c r="C27" s="2"/>
@@ -14367,7 +14600,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
     </row>
-    <row r="28" spans="1:11" s="11" customFormat="1">
+    <row r="28" spans="1:11">
       <c r="A28" s="1"/>
       <c r="B28" s="12"/>
       <c r="C28" s="2"/>
@@ -14380,7 +14613,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
     </row>
-    <row r="29" spans="1:11" s="11" customFormat="1">
+    <row r="29" spans="1:11">
       <c r="A29" s="1"/>
       <c r="B29" s="12"/>
       <c r="C29" s="2"/>
@@ -14393,7 +14626,7 @@
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
     </row>
-    <row r="30" spans="1:11" s="11" customFormat="1">
+    <row r="30" spans="1:11">
       <c r="A30" s="1"/>
       <c r="B30" s="12"/>
       <c r="C30" s="2"/>
@@ -14406,7 +14639,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
     </row>
-    <row r="31" spans="1:11" s="11" customFormat="1">
+    <row r="31" spans="1:11">
       <c r="A31" s="1"/>
       <c r="B31" s="12"/>
       <c r="C31" s="2"/>
@@ -14419,7 +14652,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
     </row>
-    <row r="32" spans="1:11" s="11" customFormat="1">
+    <row r="32" spans="1:11">
       <c r="A32" s="1"/>
       <c r="B32" s="12"/>
       <c r="C32" s="2"/>
@@ -14432,7 +14665,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
     </row>
-    <row r="33" spans="1:11" s="11" customFormat="1">
+    <row r="33" spans="1:11">
       <c r="A33" s="1"/>
       <c r="B33" s="12"/>
       <c r="C33" s="2"/>
@@ -14445,7 +14678,7 @@
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
     </row>
-    <row r="34" spans="1:11" s="11" customFormat="1">
+    <row r="34" spans="1:11">
       <c r="A34" s="1"/>
       <c r="B34" s="12"/>
       <c r="C34" s="2"/>
@@ -14458,7 +14691,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
     </row>
-    <row r="35" spans="1:11" s="11" customFormat="1">
+    <row r="35" spans="1:11">
       <c r="A35" s="1"/>
       <c r="B35" s="12"/>
       <c r="C35" s="2"/>
@@ -14471,7 +14704,7 @@
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
     </row>
-    <row r="36" spans="1:11" s="11" customFormat="1">
+    <row r="36" spans="1:11">
       <c r="A36" s="1"/>
       <c r="B36" s="12"/>
       <c r="C36" s="2"/>
@@ -14484,7 +14717,7 @@
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
     </row>
-    <row r="37" spans="1:11" s="11" customFormat="1">
+    <row r="37" spans="1:11">
       <c r="A37" s="1"/>
       <c r="B37" s="12"/>
       <c r="C37" s="2"/>
@@ -14497,7 +14730,7 @@
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
     </row>
-    <row r="38" spans="1:11" s="11" customFormat="1">
+    <row r="38" spans="1:11">
       <c r="A38" s="1"/>
       <c r="B38" s="12"/>
       <c r="C38" s="2"/>
@@ -14510,7 +14743,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
     </row>
-    <row r="39" spans="1:11" s="11" customFormat="1">
+    <row r="39" spans="1:11">
       <c r="A39" s="1"/>
       <c r="B39" s="12"/>
       <c r="C39" s="2"/>
@@ -14523,7 +14756,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="12"/>
     </row>
-    <row r="40" spans="1:11" s="11" customFormat="1">
+    <row r="40" spans="1:11">
       <c r="A40" s="1"/>
       <c r="B40" s="12"/>
       <c r="C40" s="2"/>
@@ -14536,7 +14769,7 @@
       <c r="J40" s="12"/>
       <c r="K40" s="12"/>
     </row>
-    <row r="41" spans="1:11" s="11" customFormat="1">
+    <row r="41" spans="1:11">
       <c r="A41" s="1"/>
       <c r="B41" s="12"/>
       <c r="C41" s="2"/>
@@ -14549,7 +14782,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
     </row>
-    <row r="42" spans="1:11" s="11" customFormat="1">
+    <row r="42" spans="1:11">
       <c r="A42" s="1"/>
       <c r="B42" s="12"/>
       <c r="C42" s="2"/>
@@ -14562,7 +14795,7 @@
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
     </row>
-    <row r="43" spans="1:11" s="11" customFormat="1">
+    <row r="43" spans="1:11">
       <c r="A43" s="1"/>
       <c r="B43" s="12"/>
       <c r="C43" s="2"/>
@@ -14575,7 +14808,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
     </row>
-    <row r="44" spans="1:11" s="11" customFormat="1">
+    <row r="44" spans="1:11">
       <c r="A44" s="1"/>
       <c r="B44" s="12"/>
       <c r="C44" s="2"/>
@@ -14588,7 +14821,7 @@
       <c r="J44" s="12"/>
       <c r="K44" s="12"/>
     </row>
-    <row r="45" spans="1:11" s="11" customFormat="1">
+    <row r="45" spans="1:11">
       <c r="A45" s="1"/>
       <c r="B45" s="12"/>
       <c r="C45" s="2"/>
@@ -14601,7 +14834,7 @@
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
     </row>
-    <row r="46" spans="1:11" s="11" customFormat="1">
+    <row r="46" spans="1:11">
       <c r="A46" s="1"/>
       <c r="B46" s="12"/>
       <c r="C46" s="2"/>
@@ -14614,7 +14847,7 @@
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
     </row>
-    <row r="47" spans="1:11" s="11" customFormat="1">
+    <row r="47" spans="1:11">
       <c r="A47" s="1"/>
       <c r="B47" s="12"/>
       <c r="C47" s="2"/>
@@ -14627,7 +14860,7 @@
       <c r="J47" s="12"/>
       <c r="K47" s="12"/>
     </row>
-    <row r="48" spans="1:11" s="11" customFormat="1">
+    <row r="48" spans="1:11">
       <c r="A48" s="1"/>
       <c r="B48" s="12"/>
       <c r="C48" s="2"/>
@@ -14640,7 +14873,7 @@
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
     </row>
-    <row r="49" spans="1:11" s="11" customFormat="1">
+    <row r="49" spans="1:11">
       <c r="A49" s="1"/>
       <c r="B49" s="12"/>
       <c r="C49" s="2"/>
@@ -14653,7 +14886,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
     </row>
-    <row r="50" spans="1:11" s="11" customFormat="1">
+    <row r="50" spans="1:11">
       <c r="A50" s="1"/>
       <c r="B50" s="12"/>
       <c r="C50" s="2"/>
@@ -14666,7 +14899,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="12"/>
     </row>
-    <row r="51" spans="1:11" s="11" customFormat="1">
+    <row r="51" spans="1:11">
       <c r="A51" s="1"/>
       <c r="B51" s="12"/>
       <c r="C51" s="2"/>
@@ -14679,7 +14912,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="12"/>
     </row>
-    <row r="52" spans="1:11" s="11" customFormat="1">
+    <row r="52" spans="1:11">
       <c r="A52" s="1"/>
       <c r="B52" s="12"/>
       <c r="C52" s="2"/>
@@ -14692,7 +14925,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="12"/>
     </row>
-    <row r="53" spans="1:11" s="11" customFormat="1">
+    <row r="53" spans="1:11">
       <c r="A53" s="1"/>
       <c r="B53" s="12"/>
       <c r="C53" s="2"/>
@@ -14705,7 +14938,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="12"/>
     </row>
-    <row r="54" spans="1:11" s="11" customFormat="1">
+    <row r="54" spans="1:11">
       <c r="A54" s="1"/>
       <c r="B54" s="12"/>
       <c r="C54" s="2"/>
@@ -14718,7 +14951,7 @@
       <c r="J54" s="12"/>
       <c r="K54" s="12"/>
     </row>
-    <row r="55" spans="1:11" s="11" customFormat="1">
+    <row r="55" spans="1:11">
       <c r="A55" s="1"/>
       <c r="B55" s="12"/>
       <c r="C55" s="2"/>
@@ -14731,7 +14964,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="12"/>
     </row>
-    <row r="56" spans="1:11" s="11" customFormat="1">
+    <row r="56" spans="1:11">
       <c r="A56" s="1"/>
       <c r="B56" s="12"/>
       <c r="C56" s="2"/>
@@ -14744,7 +14977,7 @@
       <c r="J56" s="12"/>
       <c r="K56" s="12"/>
     </row>
-    <row r="57" spans="1:11" s="11" customFormat="1">
+    <row r="57" spans="1:11">
       <c r="A57" s="1"/>
       <c r="B57" s="12"/>
       <c r="C57" s="2"/>
@@ -14757,7 +14990,7 @@
       <c r="J57" s="12"/>
       <c r="K57" s="12"/>
     </row>
-    <row r="58" spans="1:11" s="11" customFormat="1">
+    <row r="58" spans="1:11">
       <c r="A58" s="1"/>
       <c r="B58" s="12"/>
       <c r="C58" s="2"/>
@@ -14770,7 +15003,7 @@
       <c r="J58" s="12"/>
       <c r="K58" s="12"/>
     </row>
-    <row r="59" spans="1:11" s="11" customFormat="1">
+    <row r="59" spans="1:11">
       <c r="A59" s="1"/>
       <c r="B59" s="12"/>
       <c r="C59" s="2"/>
@@ -14783,7 +15016,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="12"/>
     </row>
-    <row r="60" spans="1:11" s="11" customFormat="1">
+    <row r="60" spans="1:11">
       <c r="A60" s="1"/>
       <c r="B60" s="12"/>
       <c r="C60" s="2"/>
@@ -14796,7 +15029,7 @@
       <c r="J60" s="12"/>
       <c r="K60" s="12"/>
     </row>
-    <row r="61" spans="1:11" s="11" customFormat="1">
+    <row r="61" spans="1:11">
       <c r="A61" s="1"/>
       <c r="B61" s="12"/>
       <c r="C61" s="2"/>
@@ -14809,7 +15042,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="12"/>
     </row>
-    <row r="62" spans="1:11" s="11" customFormat="1">
+    <row r="62" spans="1:11">
       <c r="A62" s="1"/>
       <c r="B62" s="12"/>
       <c r="C62" s="2"/>
@@ -14822,7 +15055,7 @@
       <c r="J62" s="12"/>
       <c r="K62" s="12"/>
     </row>
-    <row r="63" spans="1:11" s="11" customFormat="1">
+    <row r="63" spans="1:11">
       <c r="A63" s="1"/>
       <c r="B63" s="12"/>
       <c r="C63" s="2"/>
@@ -14835,7 +15068,7 @@
       <c r="J63" s="12"/>
       <c r="K63" s="12"/>
     </row>
-    <row r="64" spans="1:11" s="11" customFormat="1">
+    <row r="64" spans="1:11">
       <c r="A64" s="1"/>
       <c r="B64" s="12"/>
       <c r="C64" s="2"/>
@@ -14848,7 +15081,7 @@
       <c r="J64" s="12"/>
       <c r="K64" s="12"/>
     </row>
-    <row r="65" spans="1:11" s="11" customFormat="1">
+    <row r="65" spans="1:11">
       <c r="A65" s="1"/>
       <c r="B65" s="12"/>
       <c r="C65" s="2"/>
@@ -14861,7 +15094,7 @@
       <c r="J65" s="12"/>
       <c r="K65" s="12"/>
     </row>
-    <row r="66" spans="1:11" s="11" customFormat="1">
+    <row r="66" spans="1:11">
       <c r="A66" s="1"/>
       <c r="B66" s="12"/>
       <c r="C66" s="2"/>
@@ -14874,7 +15107,7 @@
       <c r="J66" s="12"/>
       <c r="K66" s="12"/>
     </row>
-    <row r="67" spans="1:11" s="11" customFormat="1">
+    <row r="67" spans="1:11">
       <c r="A67" s="1"/>
       <c r="B67" s="12"/>
       <c r="C67" s="2"/>
@@ -14887,7 +15120,7 @@
       <c r="J67" s="12"/>
       <c r="K67" s="12"/>
     </row>
-    <row r="68" spans="1:11" s="11" customFormat="1">
+    <row r="68" spans="1:11">
       <c r="A68" s="1"/>
       <c r="B68" s="12"/>
       <c r="C68" s="2"/>
@@ -14900,7 +15133,7 @@
       <c r="J68" s="12"/>
       <c r="K68" s="12"/>
     </row>
-    <row r="69" spans="1:11" s="11" customFormat="1">
+    <row r="69" spans="1:11">
       <c r="A69" s="1"/>
       <c r="B69" s="12"/>
       <c r="C69" s="2"/>
@@ -14913,7 +15146,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="12"/>
     </row>
-    <row r="70" spans="1:11" s="11" customFormat="1">
+    <row r="70" spans="1:11">
       <c r="A70" s="1"/>
       <c r="B70" s="12"/>
       <c r="C70" s="2"/>
@@ -14926,7 +15159,7 @@
       <c r="J70" s="12"/>
       <c r="K70" s="12"/>
     </row>
-    <row r="71" spans="1:11" s="11" customFormat="1">
+    <row r="71" spans="1:11">
       <c r="A71" s="1"/>
       <c r="B71" s="12"/>
       <c r="C71" s="2"/>
@@ -14939,7 +15172,7 @@
       <c r="J71" s="12"/>
       <c r="K71" s="12"/>
     </row>
-    <row r="72" spans="1:11" s="11" customFormat="1">
+    <row r="72" spans="1:11">
       <c r="A72" s="1"/>
       <c r="B72" s="12"/>
       <c r="C72" s="2"/>
@@ -14952,7 +15185,7 @@
       <c r="J72" s="12"/>
       <c r="K72" s="12"/>
     </row>
-    <row r="73" spans="1:11" s="11" customFormat="1">
+    <row r="73" spans="1:11">
       <c r="A73" s="1"/>
       <c r="B73" s="12"/>
       <c r="C73" s="2"/>
@@ -14965,7 +15198,7 @@
       <c r="J73" s="12"/>
       <c r="K73" s="12"/>
     </row>
-    <row r="74" spans="1:11" s="11" customFormat="1">
+    <row r="74" spans="1:11">
       <c r="A74" s="1"/>
       <c r="B74" s="12"/>
       <c r="C74" s="2"/>
@@ -14978,7 +15211,7 @@
       <c r="J74" s="12"/>
       <c r="K74" s="12"/>
     </row>
-    <row r="75" spans="1:11" s="11" customFormat="1">
+    <row r="75" spans="1:11">
       <c r="A75" s="1"/>
       <c r="B75" s="12"/>
       <c r="C75" s="2"/>
@@ -14991,7 +15224,7 @@
       <c r="J75" s="12"/>
       <c r="K75" s="12"/>
     </row>
-    <row r="76" spans="1:11" s="11" customFormat="1">
+    <row r="76" spans="1:11">
       <c r="A76" s="1"/>
       <c r="B76" s="12"/>
       <c r="C76" s="2"/>
@@ -15004,7 +15237,7 @@
       <c r="J76" s="12"/>
       <c r="K76" s="12"/>
     </row>
-    <row r="77" spans="1:11" s="11" customFormat="1">
+    <row r="77" spans="1:11">
       <c r="A77" s="1"/>
       <c r="B77" s="12"/>
       <c r="C77" s="2"/>
@@ -15017,7 +15250,7 @@
       <c r="J77" s="12"/>
       <c r="K77" s="12"/>
     </row>
-    <row r="78" spans="1:11" s="11" customFormat="1">
+    <row r="78" spans="1:11">
       <c r="A78" s="1"/>
       <c r="B78" s="12"/>
       <c r="C78" s="2"/>
@@ -15030,7 +15263,7 @@
       <c r="J78" s="12"/>
       <c r="K78" s="12"/>
     </row>
-    <row r="79" spans="1:11" s="11" customFormat="1">
+    <row r="79" spans="1:11">
       <c r="A79" s="1"/>
       <c r="B79" s="12"/>
       <c r="C79" s="2"/>
@@ -15043,7 +15276,7 @@
       <c r="J79" s="12"/>
       <c r="K79" s="12"/>
     </row>
-    <row r="80" spans="1:11" s="11" customFormat="1">
+    <row r="80" spans="1:11">
       <c r="A80" s="1"/>
       <c r="B80" s="12"/>
       <c r="C80" s="2"/>
@@ -15056,7 +15289,7 @@
       <c r="J80" s="12"/>
       <c r="K80" s="12"/>
     </row>
-    <row r="81" spans="1:11" s="11" customFormat="1">
+    <row r="81" spans="1:11">
       <c r="A81" s="1"/>
       <c r="B81" s="12"/>
       <c r="C81" s="2"/>
@@ -15069,7 +15302,7 @@
       <c r="J81" s="12"/>
       <c r="K81" s="12"/>
     </row>
-    <row r="82" spans="1:11" s="11" customFormat="1">
+    <row r="82" spans="1:11">
       <c r="A82" s="1"/>
       <c r="B82" s="12"/>
       <c r="C82" s="2"/>
@@ -15082,7 +15315,7 @@
       <c r="J82" s="12"/>
       <c r="K82" s="12"/>
     </row>
-    <row r="83" spans="1:11" s="11" customFormat="1">
+    <row r="83" spans="1:11">
       <c r="A83" s="1"/>
       <c r="B83" s="12"/>
       <c r="C83" s="2"/>
@@ -15095,7 +15328,7 @@
       <c r="J83" s="12"/>
       <c r="K83" s="12"/>
     </row>
-    <row r="84" spans="1:11" s="11" customFormat="1">
+    <row r="84" spans="1:11">
       <c r="A84" s="1"/>
       <c r="B84" s="12"/>
       <c r="C84" s="2"/>
@@ -15108,7 +15341,7 @@
       <c r="J84" s="12"/>
       <c r="K84" s="12"/>
     </row>
-    <row r="85" spans="1:11" s="11" customFormat="1">
+    <row r="85" spans="1:11">
       <c r="A85" s="1"/>
       <c r="B85" s="12"/>
       <c r="C85" s="2"/>
@@ -15121,7 +15354,7 @@
       <c r="J85" s="12"/>
       <c r="K85" s="12"/>
     </row>
-    <row r="86" spans="1:11" s="11" customFormat="1">
+    <row r="86" spans="1:11">
       <c r="A86" s="1"/>
       <c r="B86" s="12"/>
       <c r="C86" s="2"/>
@@ -15134,7 +15367,7 @@
       <c r="J86" s="12"/>
       <c r="K86" s="12"/>
     </row>
-    <row r="87" spans="1:11" s="11" customFormat="1">
+    <row r="87" spans="1:11">
       <c r="A87" s="1"/>
       <c r="B87" s="12"/>
       <c r="C87" s="2"/>
@@ -15147,7 +15380,7 @@
       <c r="J87" s="12"/>
       <c r="K87" s="12"/>
     </row>
-    <row r="88" spans="1:11" s="11" customFormat="1">
+    <row r="88" spans="1:11">
       <c r="A88" s="1"/>
       <c r="B88" s="12"/>
       <c r="C88" s="2"/>
@@ -15160,7 +15393,7 @@
       <c r="J88" s="12"/>
       <c r="K88" s="12"/>
     </row>
-    <row r="89" spans="1:11" s="11" customFormat="1">
+    <row r="89" spans="1:11">
       <c r="A89" s="1"/>
       <c r="B89" s="12"/>
       <c r="C89" s="2"/>
@@ -15173,7 +15406,7 @@
       <c r="J89" s="12"/>
       <c r="K89" s="12"/>
     </row>
-    <row r="90" spans="1:11" s="11" customFormat="1">
+    <row r="90" spans="1:11">
       <c r="A90" s="1"/>
       <c r="B90" s="12"/>
       <c r="C90" s="2"/>
@@ -15186,7 +15419,7 @@
       <c r="J90" s="12"/>
       <c r="K90" s="12"/>
     </row>
-    <row r="91" spans="1:11" s="11" customFormat="1">
+    <row r="91" spans="1:11">
       <c r="A91" s="1"/>
       <c r="B91" s="12"/>
       <c r="C91" s="2"/>
@@ -15199,7 +15432,7 @@
       <c r="J91" s="12"/>
       <c r="K91" s="12"/>
     </row>
-    <row r="92" spans="1:11" s="11" customFormat="1">
+    <row r="92" spans="1:11">
       <c r="A92" s="1"/>
       <c r="B92" s="12"/>
       <c r="C92" s="2"/>
@@ -15212,7 +15445,7 @@
       <c r="J92" s="12"/>
       <c r="K92" s="12"/>
     </row>
-    <row r="93" spans="1:11" s="11" customFormat="1">
+    <row r="93" spans="1:11">
       <c r="A93" s="1"/>
       <c r="B93" s="12"/>
       <c r="C93" s="2"/>
@@ -15225,7 +15458,7 @@
       <c r="J93" s="12"/>
       <c r="K93" s="12"/>
     </row>
-    <row r="94" spans="1:11" s="11" customFormat="1">
+    <row r="94" spans="1:11">
       <c r="A94" s="1"/>
       <c r="B94" s="12"/>
       <c r="C94" s="2"/>
@@ -15238,7 +15471,7 @@
       <c r="J94" s="12"/>
       <c r="K94" s="12"/>
     </row>
-    <row r="95" spans="1:11" s="11" customFormat="1">
+    <row r="95" spans="1:11">
       <c r="A95" s="1"/>
       <c r="B95" s="12"/>
       <c r="C95" s="2"/>
@@ -15251,7 +15484,7 @@
       <c r="J95" s="12"/>
       <c r="K95" s="12"/>
     </row>
-    <row r="96" spans="1:11" s="11" customFormat="1">
+    <row r="96" spans="1:11">
       <c r="A96" s="1"/>
       <c r="B96" s="12"/>
       <c r="C96" s="2"/>
@@ -15264,7 +15497,7 @@
       <c r="J96" s="12"/>
       <c r="K96" s="12"/>
     </row>
-    <row r="97" spans="1:11" s="11" customFormat="1">
+    <row r="97" spans="1:11">
       <c r="A97" s="1"/>
       <c r="B97" s="12"/>
       <c r="C97" s="2"/>
@@ -15277,7 +15510,7 @@
       <c r="J97" s="12"/>
       <c r="K97" s="12"/>
     </row>
-    <row r="98" spans="1:11" s="11" customFormat="1">
+    <row r="98" spans="1:11">
       <c r="A98" s="1"/>
       <c r="B98" s="12"/>
       <c r="C98" s="2"/>
@@ -15290,7 +15523,7 @@
       <c r="J98" s="12"/>
       <c r="K98" s="12"/>
     </row>
-    <row r="99" spans="1:11" s="11" customFormat="1">
+    <row r="99" spans="1:11">
       <c r="A99" s="1"/>
       <c r="B99" s="12"/>
       <c r="C99" s="2"/>
@@ -15303,7 +15536,7 @@
       <c r="J99" s="12"/>
       <c r="K99" s="12"/>
     </row>
-    <row r="100" spans="1:11" s="11" customFormat="1">
+    <row r="100" spans="1:11">
       <c r="A100" s="1"/>
       <c r="B100" s="12"/>
       <c r="C100" s="2"/>
@@ -15316,7 +15549,7 @@
       <c r="J100" s="12"/>
       <c r="K100" s="12"/>
     </row>
-    <row r="101" spans="1:11" s="11" customFormat="1">
+    <row r="101" spans="1:11">
       <c r="A101" s="1"/>
       <c r="B101" s="12"/>
       <c r="C101" s="2"/>
@@ -15329,7 +15562,7 @@
       <c r="J101" s="12"/>
       <c r="K101" s="12"/>
     </row>
-    <row r="102" spans="1:11" s="11" customFormat="1">
+    <row r="102" spans="1:11">
       <c r="A102" s="1"/>
       <c r="B102" s="12"/>
       <c r="C102" s="2"/>
@@ -15342,7 +15575,7 @@
       <c r="J102" s="12"/>
       <c r="K102" s="12"/>
     </row>
-    <row r="103" spans="1:11" s="11" customFormat="1">
+    <row r="103" spans="1:11">
       <c r="A103" s="1"/>
       <c r="B103" s="12"/>
       <c r="C103" s="2"/>
@@ -15355,7 +15588,7 @@
       <c r="J103" s="12"/>
       <c r="K103" s="12"/>
     </row>
-    <row r="104" spans="1:11" s="11" customFormat="1">
+    <row r="104" spans="1:11">
       <c r="A104" s="1"/>
       <c r="B104" s="12"/>
       <c r="C104" s="2"/>
@@ -15368,7 +15601,7 @@
       <c r="J104" s="12"/>
       <c r="K104" s="12"/>
     </row>
-    <row r="105" spans="1:11" s="11" customFormat="1">
+    <row r="105" spans="1:11">
       <c r="A105" s="1"/>
       <c r="B105" s="12"/>
       <c r="C105" s="2"/>
@@ -15381,7 +15614,7 @@
       <c r="J105" s="12"/>
       <c r="K105" s="12"/>
     </row>
-    <row r="106" spans="1:11" s="11" customFormat="1">
+    <row r="106" spans="1:11">
       <c r="A106" s="1"/>
       <c r="B106" s="12"/>
       <c r="C106" s="2"/>
@@ -15394,7 +15627,7 @@
       <c r="J106" s="12"/>
       <c r="K106" s="12"/>
     </row>
-    <row r="107" spans="1:11" s="11" customFormat="1">
+    <row r="107" spans="1:11">
       <c r="A107" s="1"/>
       <c r="B107" s="12"/>
       <c r="C107" s="2"/>
@@ -15407,7 +15640,7 @@
       <c r="J107" s="12"/>
       <c r="K107" s="12"/>
     </row>
-    <row r="108" spans="1:11" s="11" customFormat="1">
+    <row r="108" spans="1:11">
       <c r="A108" s="1"/>
       <c r="B108" s="12"/>
       <c r="C108" s="2"/>
@@ -15420,7 +15653,7 @@
       <c r="J108" s="12"/>
       <c r="K108" s="12"/>
     </row>
-    <row r="109" spans="1:11" s="11" customFormat="1">
+    <row r="109" spans="1:11">
       <c r="A109" s="1"/>
       <c r="B109" s="12"/>
       <c r="C109" s="2"/>
@@ -15433,7 +15666,7 @@
       <c r="J109" s="12"/>
       <c r="K109" s="12"/>
     </row>
-    <row r="110" spans="1:11" s="11" customFormat="1">
+    <row r="110" spans="1:11">
       <c r="A110" s="1"/>
       <c r="B110" s="12"/>
       <c r="C110" s="2"/>
@@ -15446,7 +15679,7 @@
       <c r="J110" s="12"/>
       <c r="K110" s="12"/>
     </row>
-    <row r="111" spans="1:11" s="11" customFormat="1">
+    <row r="111" spans="1:11">
       <c r="A111" s="1"/>
       <c r="B111" s="12"/>
       <c r="C111" s="2"/>
@@ -15459,7 +15692,7 @@
       <c r="J111" s="12"/>
       <c r="K111" s="12"/>
     </row>
-    <row r="112" spans="1:11" s="11" customFormat="1">
+    <row r="112" spans="1:11">
       <c r="A112" s="1"/>
       <c r="B112" s="12"/>
       <c r="C112" s="2"/>
@@ -15472,7 +15705,7 @@
       <c r="J112" s="12"/>
       <c r="K112" s="12"/>
     </row>
-    <row r="113" spans="1:11" s="11" customFormat="1">
+    <row r="113" spans="1:11">
       <c r="A113" s="1"/>
       <c r="B113" s="12"/>
       <c r="C113" s="2"/>
@@ -15485,7 +15718,7 @@
       <c r="J113" s="12"/>
       <c r="K113" s="12"/>
     </row>
-    <row r="114" spans="1:11" s="11" customFormat="1">
+    <row r="114" spans="1:11">
       <c r="A114" s="1"/>
       <c r="B114" s="12"/>
       <c r="C114" s="2"/>
@@ -15498,7 +15731,7 @@
       <c r="J114" s="12"/>
       <c r="K114" s="12"/>
     </row>
-    <row r="115" spans="1:11" s="11" customFormat="1">
+    <row r="115" spans="1:11">
       <c r="A115" s="1"/>
       <c r="B115" s="12"/>
       <c r="C115" s="2"/>
@@ -15511,7 +15744,7 @@
       <c r="J115" s="12"/>
       <c r="K115" s="12"/>
     </row>
-    <row r="116" spans="1:11" s="11" customFormat="1">
+    <row r="116" spans="1:11">
       <c r="A116" s="1"/>
       <c r="B116" s="12"/>
       <c r="C116" s="2"/>
@@ -15524,7 +15757,7 @@
       <c r="J116" s="12"/>
       <c r="K116" s="12"/>
     </row>
-    <row r="117" spans="1:11" s="11" customFormat="1">
+    <row r="117" spans="1:11">
       <c r="A117" s="1"/>
       <c r="B117" s="12"/>
       <c r="C117" s="2"/>
@@ -15537,7 +15770,7 @@
       <c r="J117" s="12"/>
       <c r="K117" s="12"/>
     </row>
-    <row r="118" spans="1:11" s="11" customFormat="1">
+    <row r="118" spans="1:11">
       <c r="A118" s="1"/>
       <c r="B118" s="12"/>
       <c r="C118" s="2"/>
@@ -15550,7 +15783,7 @@
       <c r="J118" s="12"/>
       <c r="K118" s="12"/>
     </row>
-    <row r="119" spans="1:11" s="11" customFormat="1">
+    <row r="119" spans="1:11">
       <c r="A119" s="1"/>
       <c r="B119" s="12"/>
       <c r="C119" s="2"/>
@@ -15563,7 +15796,7 @@
       <c r="J119" s="12"/>
       <c r="K119" s="12"/>
     </row>
-    <row r="120" spans="1:11" s="11" customFormat="1">
+    <row r="120" spans="1:11">
       <c r="A120" s="1"/>
       <c r="B120" s="12"/>
       <c r="C120" s="2"/>
@@ -15576,7 +15809,7 @@
       <c r="J120" s="12"/>
       <c r="K120" s="12"/>
     </row>
-    <row r="121" spans="1:11" s="11" customFormat="1">
+    <row r="121" spans="1:11">
       <c r="A121" s="1"/>
       <c r="B121" s="12"/>
       <c r="C121" s="2"/>
@@ -15589,39 +15822,55 @@
       <c r="J121" s="12"/>
       <c r="K121" s="12"/>
     </row>
-    <row r="122" spans="1:11" s="11" customFormat="1">
-      <c r="A122" s="14"/>
-      <c r="B122" s="15"/>
-      <c r="C122" s="16"/>
-      <c r="D122" s="15"/>
-      <c r="E122" s="15"/>
-      <c r="F122" s="15"/>
-      <c r="G122" s="15"/>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="15"/>
-      <c r="K122" s="15"/>
+    <row r="122" spans="1:11">
+      <c r="A122" s="1"/>
+      <c r="B122" s="12"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="13"/>
+      <c r="E122" s="12"/>
+      <c r="F122" s="12"/>
+      <c r="G122" s="12"/>
+      <c r="H122" s="12"/>
+      <c r="I122" s="12"/>
+      <c r="J122" s="12"/>
+      <c r="K122" s="12"/>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" s="1"/>
+      <c r="B123" s="12"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="12"/>
+      <c r="I123" s="12"/>
+      <c r="J123" s="12"/>
+      <c r="K123" s="12"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="6"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B121">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B123">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I121">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I123">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G2:G121">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G123">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J2:J121">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J123">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K2:K121">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K123">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
@@ -15639,7 +15888,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D121</xm:sqref>
+          <xm:sqref>D4:D123</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -15648,7 +15897,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E2:E121</xm:sqref>
+          <xm:sqref>E4:E123</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="MIDI Note" prompt="Choose from Drop-down list or imput number directly(0-127)_x000a__x000a_If don’t use MIDI Note, set Cell value empty.">
           <x14:formula1>
@@ -15657,7 +15906,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F2:F121</xm:sqref>
+          <xm:sqref>F4:F123</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
